--- a/GAMS/Data/Input_ra.xlsx
+++ b/GAMS/Data/Input_ra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba62very\MyGit\risk-aversion-new\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba62very\MyGit\risk-aversion\GAMS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>#id</t>
   </si>
@@ -36,13 +36,7 @@
     <t>refPrice</t>
   </si>
   <si>
-    <t>low_dlev</t>
-  </si>
-  <si>
-    <t>medium_dlev</t>
-  </si>
-  <si>
-    <t>high_dlev</t>
+    <t>refDem</t>
   </si>
 </sst>
 </file>
@@ -363,7 +357,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,10 +414,10 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.72</v>
+        <v>0.81</v>
       </c>
       <c r="I2">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -449,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.72</v>
+        <v>0.81</v>
       </c>
       <c r="I3">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -478,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="I4">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -507,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -536,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="I6">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -565,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -594,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="I8">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -623,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="I9">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -652,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="I10">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -681,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.49</v>
+        <v>0.22</v>
       </c>
       <c r="I11">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -710,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I12">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -739,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I13">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="I14">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -797,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.34</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I15">
-        <v>0.27</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -826,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I16">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -855,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I17">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -884,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.21</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I18">
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -913,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I19">
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -942,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.14000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I20">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -971,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.14000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I21">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1000,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I22">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1029,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I23">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1058,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I24">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1087,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I25">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1100,32 +1094,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1133,21 +1121,13 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>250</v>
       </c>
-      <c r="D2">
-        <f>0.6*F2</f>
-        <v>0.6</v>
-      </c>
-      <c r="E2">
-        <f>0.8*F2</f>
-        <v>0.8</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1155,21 +1135,13 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="C3">
+        <v>0.95</v>
+      </c>
+      <c r="D3">
         <v>150</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">0.6*F3</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E25" si="1">0.8*F3</f>
-        <v>0.76</v>
-      </c>
-      <c r="F3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1177,21 +1149,13 @@
         <v>0.05</v>
       </c>
       <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
         <v>100</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="F4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1199,21 +1163,13 @@
         <v>0.05</v>
       </c>
       <c r="C5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.68</v>
-      </c>
-      <c r="F5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1221,21 +1177,13 @@
         <v>0.05</v>
       </c>
       <c r="C6">
+        <v>0.8</v>
+      </c>
+      <c r="D6">
         <v>60</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="F6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1243,21 +1191,13 @@
         <v>0.05</v>
       </c>
       <c r="C7">
+        <v>0.75</v>
+      </c>
+      <c r="D7">
         <v>55</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1265,21 +1205,13 @@
         <v>0.05</v>
       </c>
       <c r="C8">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
         <v>45</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="F8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1287,21 +1219,13 @@
         <v>0.05</v>
       </c>
       <c r="C9">
+        <v>0.65</v>
+      </c>
+      <c r="D9">
         <v>45</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.39</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.52</v>
-      </c>
-      <c r="F9">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1309,21 +1233,13 @@
         <v>0.05</v>
       </c>
       <c r="C10">
+        <v>0.6</v>
+      </c>
+      <c r="D10">
         <v>45</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-      <c r="F10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1331,21 +1247,13 @@
         <v>0.05</v>
       </c>
       <c r="C11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D11">
         <v>45</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="F11">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1353,21 +1261,13 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
         <v>45</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1375,21 +1275,13 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C13">
+        <v>0.45</v>
+      </c>
+      <c r="D13">
         <v>45</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="F13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1397,21 +1289,13 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14">
         <v>100</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="F14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1419,21 +1303,13 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="C15">
+        <v>0.85</v>
+      </c>
+      <c r="D15">
         <v>80</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.51</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.68</v>
-      </c>
-      <c r="F15">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1441,21 +1317,13 @@
         <v>0.05</v>
       </c>
       <c r="C16">
+        <v>0.8</v>
+      </c>
+      <c r="D16">
         <v>60</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="F16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1463,21 +1331,13 @@
         <v>0.05</v>
       </c>
       <c r="C17">
+        <v>0.75</v>
+      </c>
+      <c r="D17">
         <v>55</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1485,21 +1345,13 @@
         <v>0.05</v>
       </c>
       <c r="C18">
+        <v>0.7</v>
+      </c>
+      <c r="D18">
         <v>45</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="F18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1507,21 +1359,13 @@
         <v>0.05</v>
       </c>
       <c r="C19">
+        <v>0.65</v>
+      </c>
+      <c r="D19">
         <v>45</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.39</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>0.52</v>
-      </c>
-      <c r="F19">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1529,21 +1373,13 @@
         <v>0.05</v>
       </c>
       <c r="C20">
+        <v>0.6</v>
+      </c>
+      <c r="D20">
         <v>45</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-      <c r="F20">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1551,21 +1387,13 @@
         <v>0.05</v>
       </c>
       <c r="C21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D21">
         <v>45</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="F21">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1573,21 +1401,13 @@
         <v>0.05</v>
       </c>
       <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
         <v>45</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="F22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1595,21 +1415,13 @@
         <v>0.05</v>
       </c>
       <c r="C23">
+        <v>0.45</v>
+      </c>
+      <c r="D23">
         <v>45</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="F23">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1617,21 +1429,13 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="C24">
+        <v>0.4</v>
+      </c>
+      <c r="D24">
         <v>45</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="F24">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1639,18 +1443,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C25">
+        <v>0.35</v>
+      </c>
+      <c r="D25">
         <v>45</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="F25">
-        <v>0.35</v>
       </c>
     </row>
   </sheetData>
